--- a/FuzzySistemLojalnosti/MarticaKonfuzije.xlsx
+++ b/FuzzySistemLojalnosti/MarticaKonfuzije.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="proba1_1" localSheetId="0">Sheet1!$A$1:$B$300</definedName>
+    <definedName name="proba1_1" localSheetId="0">Sheet1!$A$2:$B$301</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="10">
   <si>
     <t>bronzana</t>
   </si>
@@ -49,20 +49,26 @@
     <t>srebrna</t>
   </si>
   <si>
-    <t>stvarne</t>
+    <t>PREDVIĐENE</t>
   </si>
   <si>
-    <t>predvidjene</t>
+    <t>STVARNE</t>
   </si>
   <si>
-    <t>Tacnost:</t>
+    <t>PREDVIĐENE VREDNOSTI</t>
+  </si>
+  <si>
+    <t>STVARNE VREDNOSTI</t>
+  </si>
+  <si>
+    <t>TAČNOST:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +76,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,15 +157,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,16 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M300"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
@@ -431,212 +624,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <f>COUNTIFS(A1:A300,"=nelojalan",B1:B300,"=nelojalan")</f>
-        <v>231</v>
-      </c>
-      <c r="J5" s="1">
-        <f>COUNTIFS(A1:A300,"=nelojalan",B1:B300,"=bronzana")</f>
-        <v>8</v>
-      </c>
-      <c r="K5" s="1">
-        <f>COUNTIFS(A1:A300,"=bronzana",B1:B300,"=srebrna")</f>
-        <v>2</v>
-      </c>
-      <c r="L5" s="1">
-        <f>COUNTIFS(A1:A300,"=nelojalan",B1:B300,"=zlatna")</f>
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <f>COUNTIFS(A1:A300,"=nelojalan",B1:B300,"=dijamantska")</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
-        <f>COUNTIFS(A1:A300,"=bronzana",B1:B300,"=nelojalan")</f>
-        <v>5</v>
+        <f>COUNTIFS(A2:A301,"=nelojalan",B2:B301,"=nelojalan")</f>
+        <v>231</v>
       </c>
       <c r="J6" s="1">
-        <f>COUNTIFS(A1:A300,"=bronzana",B1:B300,"=bronzana")</f>
-        <v>40</v>
+        <f>COUNTIFS(A2:A301,"=nelojalan",B2:B301,"=bronzana")</f>
+        <v>8</v>
       </c>
       <c r="K6" s="1">
-        <f>COUNTIFS(A1:A300,"=nelojalan",B1:B300,"=srebrna")</f>
-        <v>3</v>
+        <f>COUNTIFS(A2:A301,"=bronzana",B2:B301,"=srebrna")</f>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
-        <f>COUNTIFS(A1:A300,"=bronzana",B1:B300,"=zlatna")</f>
+        <f>COUNTIFS(A2:A301,"=nelojalan",B2:B301,"=zlatna")</f>
         <v>2</v>
       </c>
       <c r="M6" s="1">
-        <f>COUNTIFS(A1:A300,"=bronzana",B1:B300,"=dijamantska")</f>
+        <f>COUNTIFS(A2:A301,"=nelojalan",B2:B301,"=dijamantska")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f>COUNTIFS(A1:A300,"=srebrna",B1:B300,"=nelojalan")</f>
-        <v>0</v>
+        <f>COUNTIFS(A2:A301,"=bronzana",B2:B301,"=nelojalan")</f>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
-        <f>COUNTIFS(A1:A300,"=srebrna",B1:B300,"=bronzana")</f>
-        <v>0</v>
+        <f>COUNTIFS(A2:A301,"=bronzana",B2:B301,"=bronzana")</f>
+        <v>40</v>
       </c>
       <c r="K7" s="1">
-        <f>COUNTIFS(A1:A300,"=srebrna",B1:B300,"=srebrna")</f>
-        <v>1</v>
+        <f>COUNTIFS(A2:A301,"=nelojalan",B2:B301,"=srebrna")</f>
+        <v>3</v>
       </c>
       <c r="L7" s="1">
-        <f>COUNTIFS(A1:A300,"=srebrna",B1:B300,"=zlatna")</f>
-        <v>0</v>
+        <f>COUNTIFS(A2:A301,"=bronzana",B2:B301,"=zlatna")</f>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
-        <f>COUNTIFS(A1:A300,"=srebrna",B1:B300,"=dijamantska")</f>
+        <f>COUNTIFS(A2:A301,"=bronzana",B2:B301,"=dijamantska")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1">
-        <f>COUNTIFS(A1:A300,"=zlatna",B1:B300,"=nelojalan")</f>
+        <f>COUNTIFS(A2:A301,"=srebrna",B2:B301,"=nelojalan")</f>
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f>COUNTIFS(A1:A300,"=zlatna",B1:B300,"=bronzana")</f>
+        <f>COUNTIFS(A2:A301,"=srebrna",B2:B301,"=bronzana")</f>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f>COUNTIFS(A1:A300,"=zlatna",B1:B300,"=srebrna")</f>
-        <v>0</v>
+        <f>COUNTIFS(A2:A301,"=srebrna",B2:B301,"=srebrna")</f>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
-        <f>COUNTIFS(A1:A300,"=zlatna",B1:B300,"=zlatna")</f>
-        <v>2</v>
+        <f>COUNTIFS(A2:A301,"=srebrna",B2:B301,"=zlatna")</f>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f>COUNTIFS(A1:A300,"=zlatna",B1:B300,"=dijamantska")</f>
-        <v>3</v>
+        <f>COUNTIFS(A2:A301,"=srebrna",B2:B301,"=dijamantska")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
-        <f>COUNTIFS(A1:A300,"=dijamantska",B1:B300,"=nelojalan")</f>
+        <f>COUNTIFS(A2:A301,"=zlatna",B2:B301,"=nelojalan")</f>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f>COUNTIFS(A1:A300,"=dijamantska",B1:B300,"=bronzana")</f>
+        <f>COUNTIFS(A2:A301,"=zlatna",B2:B301,"=bronzana")</f>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f>COUNTIFS(A1:A300,"=dijamantska",B1:B300,"=srebrna")</f>
+        <f>COUNTIFS(A2:A301,"=zlatna",B2:B301,"=srebrna")</f>
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f>COUNTIFS(A1:A300,"=dijamanstka",B1:B300,"=zlatna")</f>
-        <v>0</v>
+        <f>COUNTIFS(A2:A301,"=zlatna",B2:B301,"=zlatna")</f>
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <f>COUNTIFS(A1:A300,"=dijamantska",B1:B300,"=dijamantska")</f>
-        <v>1</v>
+        <f>COUNTIFS(A2:A301,"=zlatna",B2:B301,"=dijamantska")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -646,6 +823,30 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <f>COUNTIFS(A2:A301,"=dijamantska",B2:B301,"=nelojalan")</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f>COUNTIFS(A2:A301,"=dijamantska",B2:B301,"=bronzana")</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f>COUNTIFS(A2:A301,"=dijamantska",B2:B301,"=srebrna")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>COUNTIFS(A2:A301,"=dijamanstka",B2:B301,"=zlatna")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f>COUNTIFS(A2:A301,"=dijamantska",B2:B301,"=dijamantska")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -657,57 +858,63 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <f>(I5+J6+K7+L8+M9)/300</f>
-        <v>0.91666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="12">
+        <f>(I6+J7+K8+L9+M10)/300</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,10 +943,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,10 +959,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,39 +978,39 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,18 +1023,18 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -835,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -843,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,18 +1087,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +1135,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -939,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,15 +1154,15 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,15 +1170,15 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,15 +1194,15 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,18 +1231,18 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1075,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,42 +1335,42 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,26 +1383,26 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,23 +1418,23 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,18 +1463,18 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,18 +1503,18 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,10 +1775,10 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,10 +1791,10 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,18 +1847,18 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,18 +1879,18 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,10 +1967,10 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,10 +1983,10 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,18 +2007,18 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,18 +2063,18 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,10 +2135,10 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,10 +2151,10 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,34 +2167,34 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,34 +2215,34 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2295,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
         <v>2</v>
@@ -2096,7 +2303,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B191" t="s">
         <v>2</v>
@@ -2115,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2123,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,18 +2495,18 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,18 +2647,18 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B234" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2695,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B240" t="s">
         <v>2</v>
@@ -2496,7 +2703,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B241" t="s">
         <v>2</v>
@@ -2504,18 +2711,18 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B242" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,18 +2863,18 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,18 +2927,18 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B269" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +3055,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B285" t="s">
         <v>2</v>
@@ -2856,7 +3063,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
@@ -2864,18 +3071,18 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B287" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,15 +3127,15 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B294" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B295" t="s">
         <v>0</v>
@@ -2939,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="B296" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +3181,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>2</v>
+      </c>
+      <c r="B301" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="L14:M15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
